--- a/perf-comp-results.xlsx
+++ b/perf-comp-results.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="9210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="9210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ex1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ex2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>No</t>
   </si>
@@ -87,6 +88,27 @@
   </si>
   <si>
     <t>Java 1.8 u66 SE amd64</t>
+  </si>
+  <si>
+    <t>Upsampling:</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Cython</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>Downsampling:</t>
+  </si>
+  <si>
+    <t>Upsample:No</t>
+  </si>
+  <si>
+    <t>Downsample:No</t>
   </si>
 </sst>
 </file>
@@ -3768,7 +3790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -4570,4 +4592,409 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E6:N23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="6" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>3.4743000000000003E-2</v>
+      </c>
+      <c r="H8">
+        <v>2.7889999999999998E-3</v>
+      </c>
+      <c r="I8">
+        <v>12.458793</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>3.6740000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>0.13553299999999999</v>
+      </c>
+      <c r="H9">
+        <v>8.4100000000000008E-3</v>
+      </c>
+      <c r="I9">
+        <v>16.115727</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>3.045E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>0.57729200000000003</v>
+      </c>
+      <c r="H10">
+        <v>3.1483999999999998E-2</v>
+      </c>
+      <c r="I10">
+        <v>18.336030999999998</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>4.3759999999999997E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>2.3302800000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.11197500000000001</v>
+      </c>
+      <c r="I11">
+        <v>20.810662000000001</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>32</v>
+      </c>
+      <c r="N11">
+        <v>2.0128E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>64</v>
+      </c>
+      <c r="G12">
+        <v>9.2329419999999995</v>
+      </c>
+      <c r="H12">
+        <v>0.44833899999999999</v>
+      </c>
+      <c r="I12">
+        <v>20.593665000000001</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>64</v>
+      </c>
+      <c r="N12">
+        <v>3.3075E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>128</v>
+      </c>
+      <c r="G13">
+        <v>38.155042999999999</v>
+      </c>
+      <c r="H13">
+        <v>1.777045</v>
+      </c>
+      <c r="I13">
+        <v>21.471062</v>
+      </c>
+      <c r="L13">
+        <v>6</v>
+      </c>
+      <c r="M13">
+        <v>128</v>
+      </c>
+      <c r="N13">
+        <v>0.131573</v>
+      </c>
+    </row>
+    <row r="14" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <v>256</v>
+      </c>
+      <c r="N14">
+        <v>0.52577600000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>5.8900000000000003E-3</v>
+      </c>
+      <c r="H17">
+        <v>2.6250000000000002E-3</v>
+      </c>
+      <c r="I17">
+        <v>2.2439650000000002</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8</v>
+      </c>
+      <c r="N17">
+        <v>1.356E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>3.0067E-2</v>
+      </c>
+      <c r="H18">
+        <v>8.966E-3</v>
+      </c>
+      <c r="I18">
+        <v>3.3534739999999998</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>16</v>
+      </c>
+      <c r="N18">
+        <v>3.287E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>0.12754199999999999</v>
+      </c>
+      <c r="H19">
+        <v>2.7262999999999999E-2</v>
+      </c>
+      <c r="I19">
+        <v>4.6781410000000001</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>32</v>
+      </c>
+      <c r="N19">
+        <v>1.3727E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>32</v>
+      </c>
+      <c r="G20">
+        <v>0.53084100000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.107348</v>
+      </c>
+      <c r="I20">
+        <v>4.9450609999999999</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>64</v>
+      </c>
+      <c r="N20">
+        <v>5.7938999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>64</v>
+      </c>
+      <c r="G21">
+        <v>2.2222569999999999</v>
+      </c>
+      <c r="H21">
+        <v>0.42149900000000001</v>
+      </c>
+      <c r="I21">
+        <v>5.2722709999999999</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>128</v>
+      </c>
+      <c r="N21">
+        <v>3.7900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>128</v>
+      </c>
+      <c r="G22">
+        <v>9.0208250000000003</v>
+      </c>
+      <c r="H22">
+        <v>1.69238</v>
+      </c>
+      <c r="I22">
+        <v>5.33026</v>
+      </c>
+      <c r="L22">
+        <v>6</v>
+      </c>
+      <c r="M22">
+        <v>256</v>
+      </c>
+      <c r="N22">
+        <v>9.9486000000000005E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="L23">
+        <v>7</v>
+      </c>
+      <c r="M23">
+        <v>512</v>
+      </c>
+      <c r="N23">
+        <v>0.33178800000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/perf-comp-results.xlsx
+++ b/perf-comp-results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Norman\PycharmProjects\performance-comparisons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Norman\IdeaProjects\performance-comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>No</t>
   </si>
@@ -99,16 +99,10 @@
     <t>Cython</t>
   </si>
   <si>
-    <t>Gain</t>
-  </si>
-  <si>
     <t>Downsampling:</t>
   </si>
   <si>
-    <t>Upsample:No</t>
-  </si>
-  <si>
-    <t>Downsample:No</t>
+    <t>Java</t>
   </si>
 </sst>
 </file>
@@ -2292,6 +2286,1129 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Absolute Times (s)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ex2'!$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ex2'!$F$8:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ex2'!$G$8:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.4743000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13553299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57729200000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3302800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2329419999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.155042999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CF3-4542-9C7B-4AC3144A4FE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ex2'!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cython</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ex2'!$F$8:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ex2'!$H$8:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.7889999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4100000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1483999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11197500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44833899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.777045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6CF3-4542-9C7B-4AC3144A4FE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ex2'!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ex2'!$F$8:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ex2'!$I$8:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.6740000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.045E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3759999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0128E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3075E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.131573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6CF3-4542-9C7B-4AC3144A4FE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="462912063"/>
+        <c:axId val="462916223"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="462912063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462916223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="462916223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462912063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Gains over plain Python</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ex2'!$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cython Gain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ex2'!$F$8:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ex2'!$J$8:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.458793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.115727</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.336030999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.810662000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.593665000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.471062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-925D-4A86-A073-7BFF964828F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ex2'!$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java Gain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ex2'!$F$8:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ex2'!$K$8:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.4564507348938491</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.510016420361247</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.92230347349178</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115.77305246422894</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>279.15168556311414</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>289.99143441283547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-925D-4A86-A073-7BFF964828F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="355772095"/>
+        <c:axId val="355770015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="355772095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355770015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="355770015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355772095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2372,6 +3489,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3400,6 +4597,1082 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3448,6 +5721,71 @@
       <xdr:colOff>133349</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3794,12 +6132,12 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5234375" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3837,7 +6175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3876,7 +6214,7 @@
         <v>4.0333333333333332</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3915,7 +6253,7 @@
         <v>7.4803921568627452</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3954,7 +6292,7 @@
         <v>7.2888888888888888</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3993,7 +6331,7 @@
         <v>9.0789473684210531</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
@@ -4029,7 +6367,7 @@
         <v>8.320214669051877</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
@@ -4065,7 +6403,7 @@
         <v>8.355597365945437</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -4104,7 +6442,7 @@
         <v>8.2765258215962429</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -4143,7 +6481,7 @@
         <v>8.3120701920796769</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -4182,7 +6520,7 @@
         <v>8.8789221114802501</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>10</v>
       </c>
@@ -4218,7 +6556,7 @@
         <v>28.068463073852296</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -4257,7 +6595,7 @@
         <v>29.418704156479215</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -4296,7 +6634,7 @@
         <v>27.838700248453257</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>13</v>
       </c>
@@ -4332,7 +6670,7 @@
         <v>28.233342371878624</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>14</v>
       </c>
@@ -4368,7 +6706,7 @@
         <v>25.207182933049474</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>15</v>
       </c>
@@ -4404,7 +6742,7 @@
         <v>26.352857817666507</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>16</v>
       </c>
@@ -4440,7 +6778,7 @@
         <v>25.950741806124327</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>17</v>
       </c>
@@ -4476,7 +6814,7 @@
         <v>26.659102820091913</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>18</v>
       </c>
@@ -4512,7 +6850,7 @@
         <v>26.259068460398922</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>19</v>
       </c>
@@ -4548,7 +6886,7 @@
         <v>26.390861454296335</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>20</v>
       </c>
@@ -4596,20 +6934,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E6:N23"/>
+  <dimension ref="E6:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>0</v>
       </c>
@@ -4623,16 +6961,16 @@
         <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" t="s">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="8" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>1</v>
       </c>
@@ -4646,19 +6984,17 @@
         <v>2.7889999999999998E-3</v>
       </c>
       <c r="I8">
+        <v>3.6740000000000002E-3</v>
+      </c>
+      <c r="J8">
         <v>12.458793</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>4</v>
-      </c>
-      <c r="N8">
-        <v>3.6740000000000002E-3</v>
+      <c r="K8">
+        <f>G8/I8</f>
+        <v>9.4564507348938491</v>
       </c>
     </row>
-    <row r="9" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>2</v>
       </c>
@@ -4672,19 +7008,17 @@
         <v>8.4100000000000008E-3</v>
       </c>
       <c r="I9">
+        <v>3.045E-3</v>
+      </c>
+      <c r="J9">
         <v>16.115727</v>
       </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>8</v>
-      </c>
-      <c r="N9">
-        <v>3.045E-3</v>
+      <c r="K9">
+        <f t="shared" ref="K9:K14" si="0">G9/I9</f>
+        <v>44.510016420361247</v>
       </c>
     </row>
-    <row r="10" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>3</v>
       </c>
@@ -4698,19 +7032,17 @@
         <v>3.1483999999999998E-2</v>
       </c>
       <c r="I10">
+        <v>4.3759999999999997E-3</v>
+      </c>
+      <c r="J10">
         <v>18.336030999999998</v>
       </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>16</v>
-      </c>
-      <c r="N10">
-        <v>4.3759999999999997E-3</v>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>131.92230347349178</v>
       </c>
     </row>
-    <row r="11" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>4</v>
       </c>
@@ -4724,19 +7056,17 @@
         <v>0.11197500000000001</v>
       </c>
       <c r="I11">
+        <v>2.0128E-2</v>
+      </c>
+      <c r="J11">
         <v>20.810662000000001</v>
       </c>
-      <c r="L11">
-        <v>4</v>
-      </c>
-      <c r="M11">
-        <v>32</v>
-      </c>
-      <c r="N11">
-        <v>2.0128E-2</v>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>115.77305246422894</v>
       </c>
     </row>
-    <row r="12" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>5</v>
       </c>
@@ -4750,19 +7080,17 @@
         <v>0.44833899999999999</v>
       </c>
       <c r="I12">
+        <v>3.3075E-2</v>
+      </c>
+      <c r="J12">
         <v>20.593665000000001</v>
       </c>
-      <c r="L12">
-        <v>5</v>
-      </c>
-      <c r="M12">
-        <v>64</v>
-      </c>
-      <c r="N12">
-        <v>3.3075E-2</v>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>279.15168556311414</v>
       </c>
     </row>
-    <row r="13" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>6</v>
       </c>
@@ -4776,225 +7104,212 @@
         <v>1.777045</v>
       </c>
       <c r="I13">
+        <v>0.131573</v>
+      </c>
+      <c r="J13">
         <v>21.471062</v>
       </c>
-      <c r="L13">
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>289.99143441283547</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>256</v>
+      </c>
+      <c r="I14">
+        <v>0.52577600000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>5.8900000000000003E-3</v>
+      </c>
+      <c r="H18">
+        <v>2.6250000000000002E-3</v>
+      </c>
+      <c r="I18">
+        <v>1.356E-3</v>
+      </c>
+      <c r="J18">
+        <v>2.2439650000000002</v>
+      </c>
+      <c r="K18">
+        <f>G18/I18</f>
+        <v>4.3436578171091451</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>3.0067E-2</v>
+      </c>
+      <c r="H19">
+        <v>8.966E-3</v>
+      </c>
+      <c r="I19">
+        <v>3.287E-3</v>
+      </c>
+      <c r="J19">
+        <v>3.3534739999999998</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:K24" si="1">G19/I19</f>
+        <v>9.1472467295406137</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>0.12754199999999999</v>
+      </c>
+      <c r="H20">
+        <v>2.7262999999999999E-2</v>
+      </c>
+      <c r="I20">
+        <v>1.3727E-2</v>
+      </c>
+      <c r="J20">
+        <v>4.6781410000000001</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>9.2913236686821588</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>32</v>
+      </c>
+      <c r="G21">
+        <v>0.53084100000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.107348</v>
+      </c>
+      <c r="I21">
+        <v>5.7938999999999997E-2</v>
+      </c>
+      <c r="J21">
+        <v>4.9450609999999999</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>9.1620670015015797</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>64</v>
+      </c>
+      <c r="G22">
+        <v>2.2222569999999999</v>
+      </c>
+      <c r="H22">
+        <v>0.42149900000000001</v>
+      </c>
+      <c r="I22">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="J22">
+        <v>5.2722709999999999</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>58.634749340369389</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E23">
         <v>6</v>
       </c>
-      <c r="M13">
+      <c r="F23">
         <v>128</v>
       </c>
-      <c r="N13">
-        <v>0.131573</v>
+      <c r="G23">
+        <v>9.0208250000000003</v>
+      </c>
+      <c r="H23">
+        <v>1.69238</v>
+      </c>
+      <c r="I23">
+        <v>9.9486000000000005E-2</v>
+      </c>
+      <c r="J23">
+        <v>5.33026</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>90.674315984158568</v>
       </c>
     </row>
-    <row r="14" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="L14">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E24">
         <v>7</v>
       </c>
-      <c r="M14">
-        <v>256</v>
-      </c>
-      <c r="N14">
-        <v>0.52577600000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17">
-        <v>5.8900000000000003E-3</v>
-      </c>
-      <c r="H17">
-        <v>2.6250000000000002E-3</v>
-      </c>
-      <c r="I17">
-        <v>2.2439650000000002</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>8</v>
-      </c>
-      <c r="N17">
-        <v>1.356E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18">
-        <v>3.0067E-2</v>
-      </c>
-      <c r="H18">
-        <v>8.966E-3</v>
-      </c>
-      <c r="I18">
-        <v>3.3534739999999998</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18">
-        <v>16</v>
-      </c>
-      <c r="N18">
-        <v>3.287E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>16</v>
-      </c>
-      <c r="G19">
-        <v>0.12754199999999999</v>
-      </c>
-      <c r="H19">
-        <v>2.7262999999999999E-2</v>
-      </c>
-      <c r="I19">
-        <v>4.6781410000000001</v>
-      </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-      <c r="M19">
-        <v>32</v>
-      </c>
-      <c r="N19">
-        <v>1.3727E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <v>32</v>
-      </c>
-      <c r="G20">
-        <v>0.53084100000000001</v>
-      </c>
-      <c r="H20">
-        <v>0.107348</v>
-      </c>
-      <c r="I20">
-        <v>4.9450609999999999</v>
-      </c>
-      <c r="L20">
-        <v>4</v>
-      </c>
-      <c r="M20">
-        <v>64</v>
-      </c>
-      <c r="N20">
-        <v>5.7938999999999997E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="F21">
-        <v>64</v>
-      </c>
-      <c r="G21">
-        <v>2.2222569999999999</v>
-      </c>
-      <c r="H21">
-        <v>0.42149900000000001</v>
-      </c>
-      <c r="I21">
-        <v>5.2722709999999999</v>
-      </c>
-      <c r="L21">
-        <v>5</v>
-      </c>
-      <c r="M21">
-        <v>128</v>
-      </c>
-      <c r="N21">
-        <v>3.7900000000000003E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E22">
-        <v>6</v>
-      </c>
-      <c r="F22">
-        <v>128</v>
-      </c>
-      <c r="G22">
-        <v>9.0208250000000003</v>
-      </c>
-      <c r="H22">
-        <v>1.69238</v>
-      </c>
-      <c r="I22">
-        <v>5.33026</v>
-      </c>
-      <c r="L22">
-        <v>6</v>
-      </c>
-      <c r="M22">
-        <v>256</v>
-      </c>
-      <c r="N22">
-        <v>9.9486000000000005E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="L23">
-        <v>7</v>
-      </c>
-      <c r="M23">
+      <c r="F24">
         <v>512</v>
       </c>
-      <c r="N23">
+      <c r="I24">
         <v>0.33178800000000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/perf-comp-results.xlsx
+++ b/perf-comp-results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Norman\PycharmProjects\performance-comparisons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Norman\Dropbox\CCI Toolbox\meetings\2016-03-02 URR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Ex1" sheetId="1" r:id="rId1"/>
-    <sheet name="Ex2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ex2" sheetId="3" r:id="rId2"/>
+    <sheet name="Ex2 bug" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>No</t>
   </si>
@@ -99,16 +100,10 @@
     <t>Cython</t>
   </si>
   <si>
-    <t>Gain</t>
-  </si>
-  <si>
     <t>Downsampling:</t>
   </si>
   <si>
-    <t>Upsample:No</t>
-  </si>
-  <si>
-    <t>Downsample:No</t>
+    <t>Java</t>
   </si>
 </sst>
 </file>
@@ -2292,6 +2287,2289 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Absolute Times (s)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ex2'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ex2'!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ex2'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.0471999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12786400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50634599999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9077029999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7342409999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.539538</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>122.319456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-48CE-435A-B4BE-8D15ED73E54B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ex2'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cython</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ex2'!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ex2'!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.01E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.284E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9629999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0141000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7116000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.140574</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60696799999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-48CE-435A-B4BE-8D15ED73E54B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ex2'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ex2'!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ex2'!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.6740000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.045E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3759999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0128E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3075E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.131573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52577600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-48CE-435A-B4BE-8D15ED73E54B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="592583663"/>
+        <c:axId val="592584495"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="592583663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="260"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592584495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="592584495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592583663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Gains over plain Python</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ex2'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cython Gain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ex2'!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ex2'!$F$3:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>33.837958</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.559415999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170.911282</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>188.11075399999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>208.37993800000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>217.248604</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201.525217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D40-475F-BAD0-B84C1A1F64D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ex2'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java Gain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ex2'!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ex2'!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.2939575394665201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.991461412151068</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115.70978062157221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.778567170111288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>233.83948601662888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>232.11098021630579</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>232.6455676942272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D40-475F-BAD0-B84C1A1F64D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="676552047"/>
+        <c:axId val="676553295"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="676552047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="260"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="676553295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="676553295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="676552047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Absolute Times (s)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ex2 bug'!$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ex2 bug'!$F$8:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ex2 bug'!$G$8:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.4743000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13553299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57729200000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3302800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2329419999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.155042999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CF3-4542-9C7B-4AC3144A4FE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ex2 bug'!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cython</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ex2 bug'!$F$8:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ex2 bug'!$H$8:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.7889999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4100000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1483999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11197500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44833899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.777045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6CF3-4542-9C7B-4AC3144A4FE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ex2 bug'!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ex2 bug'!$F$8:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ex2 bug'!$I$8:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.6740000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.045E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3759999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0128E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3075E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.131573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6CF3-4542-9C7B-4AC3144A4FE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="462912063"/>
+        <c:axId val="462916223"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="462912063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462916223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="462916223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462912063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Gains over plain Python</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ex2 bug'!$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cython Gain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ex2 bug'!$F$8:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ex2 bug'!$J$8:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.458793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.115727</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.336030999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.810662000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.593665000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.471062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-925D-4A86-A073-7BFF964828F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ex2 bug'!$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java Gain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ex2 bug'!$F$8:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ex2 bug'!$K$8:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.4564507348938491</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.510016420361247</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.92230347349178</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115.77305246422894</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>279.15168556311414</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>289.99143441283547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-925D-4A86-A073-7BFF964828F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="355772095"/>
+        <c:axId val="355770015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="355772095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355770015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="355770015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355772095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2372,6 +4650,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3400,6 +5838,2158 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3448,6 +8038,136 @@
       <xdr:colOff>133349</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>321945</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>139065</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3796,7 +8516,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="45.5234375" customWidth="1"/>
+    <col min="1" max="1" width="45.578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4596,405 +9316,790 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E6:N23"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="6" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E7" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="H7" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="I7" t="s">
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>3.0471999999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>9.01E-4</v>
+      </c>
+      <c r="E3">
+        <v>3.6740000000000002E-3</v>
+      </c>
+      <c r="F3">
+        <v>33.837958</v>
+      </c>
+      <c r="G3">
+        <f>C3/E3</f>
+        <v>8.2939575394665201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>0.12786400000000001</v>
+      </c>
+      <c r="D4">
+        <v>1.284E-3</v>
+      </c>
+      <c r="E4">
+        <v>3.045E-3</v>
+      </c>
+      <c r="F4">
+        <v>99.559415999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G9" si="0">C4/E4</f>
+        <v>41.991461412151068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>0.50634599999999996</v>
+      </c>
+      <c r="D5">
+        <v>2.9629999999999999E-3</v>
+      </c>
+      <c r="E5">
+        <v>4.3759999999999997E-3</v>
+      </c>
+      <c r="F5">
+        <v>170.911282</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>115.70978062157221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>1.9077029999999999</v>
+      </c>
+      <c r="D6">
+        <v>1.0141000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.0128E-2</v>
+      </c>
+      <c r="F6">
+        <v>188.11075399999999</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>94.778567170111288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>64</v>
+      </c>
+      <c r="C7">
+        <v>7.7342409999999999</v>
+      </c>
+      <c r="D7">
+        <v>3.7116000000000003E-2</v>
+      </c>
+      <c r="E7">
+        <v>3.3075E-2</v>
+      </c>
+      <c r="F7">
+        <v>208.37993800000001</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>233.83948601662888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>128</v>
+      </c>
+      <c r="C8">
+        <v>30.539538</v>
+      </c>
+      <c r="D8">
+        <v>0.140574</v>
+      </c>
+      <c r="E8">
+        <v>0.131573</v>
+      </c>
+      <c r="F8">
+        <v>217.248604</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>232.11098021630579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>256</v>
+      </c>
+      <c r="C9">
+        <v>122.319456</v>
+      </c>
+      <c r="D9">
+        <v>0.60696799999999995</v>
+      </c>
+      <c r="E9">
+        <v>0.52577600000000002</v>
+      </c>
+      <c r="F9">
+        <v>201.525217</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>232.6455676942272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="L7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
         <v>1</v>
       </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E8">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="B13">
         <v>4</v>
       </c>
-      <c r="G8">
-        <v>3.4743000000000003E-2</v>
-      </c>
-      <c r="H8">
-        <v>2.7889999999999998E-3</v>
-      </c>
-      <c r="I8">
-        <v>12.458793</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
+      <c r="C13">
+        <v>3.6519999999999999E-3</v>
+      </c>
+      <c r="D13">
+        <v>6.6399999999999999E-4</v>
+      </c>
+      <c r="E13">
+        <v>1.356E-3</v>
+      </c>
+      <c r="F13">
+        <v>5.5030260000000002</v>
+      </c>
+      <c r="G13">
+        <f>C13/E13</f>
+        <v>2.6932153392330385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>2.1034000000000001E-2</v>
+      </c>
+      <c r="D14">
+        <v>7.45E-4</v>
+      </c>
+      <c r="E14">
+        <v>3.287E-3</v>
+      </c>
+      <c r="F14">
+        <v>28.224551000000002</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G19" si="1">C14/E14</f>
+        <v>6.3991481594158808</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>8.7724999999999997E-2</v>
+      </c>
+      <c r="D15">
+        <v>9.6900000000000003E-4</v>
+      </c>
+      <c r="E15">
+        <v>1.3727E-2</v>
+      </c>
+      <c r="F15">
+        <v>90.508747999999997</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>6.390689881255919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
         <v>4</v>
       </c>
-      <c r="N8">
-        <v>3.6740000000000002E-3</v>
+      <c r="B16">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>0.38125100000000001</v>
+      </c>
+      <c r="D16">
+        <v>1.815E-3</v>
+      </c>
+      <c r="E16">
+        <v>5.7938999999999997E-2</v>
+      </c>
+      <c r="F16">
+        <v>210.06933900000001</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>6.5802136730009151</v>
       </c>
     </row>
-    <row r="9" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>0.13553299999999999</v>
-      </c>
-      <c r="H9">
-        <v>8.4100000000000008E-3</v>
-      </c>
-      <c r="I9">
-        <v>16.115727</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>8</v>
-      </c>
-      <c r="N9">
-        <v>3.045E-3</v>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>64</v>
+      </c>
+      <c r="C17">
+        <v>1.6359999999999999</v>
+      </c>
+      <c r="D17">
+        <v>3.9370000000000004E-3</v>
+      </c>
+      <c r="E17">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="F17">
+        <v>415.56801200000001</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>43.166226912928757</v>
       </c>
     </row>
-    <row r="10" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>16</v>
-      </c>
-      <c r="G10">
-        <v>0.57729200000000003</v>
-      </c>
-      <c r="H10">
-        <v>3.1483999999999998E-2</v>
-      </c>
-      <c r="I10">
-        <v>18.336030999999998</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>16</v>
-      </c>
-      <c r="N10">
-        <v>4.3759999999999997E-3</v>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>128</v>
+      </c>
+      <c r="C18">
+        <v>6.5700640000000003</v>
+      </c>
+      <c r="D18">
+        <v>1.4206999999999999E-2</v>
+      </c>
+      <c r="E18">
+        <v>9.9486000000000005E-2</v>
+      </c>
+      <c r="F18">
+        <v>462.44834600000002</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>66.040086042257201</v>
       </c>
     </row>
-    <row r="11" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>32</v>
-      </c>
-      <c r="G11">
-        <v>2.3302800000000001</v>
-      </c>
-      <c r="H11">
-        <v>0.11197500000000001</v>
-      </c>
-      <c r="I11">
-        <v>20.810662000000001</v>
-      </c>
-      <c r="L11">
-        <v>4</v>
-      </c>
-      <c r="M11">
-        <v>32</v>
-      </c>
-      <c r="N11">
-        <v>2.0128E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>64</v>
-      </c>
-      <c r="G12">
-        <v>9.2329419999999995</v>
-      </c>
-      <c r="H12">
-        <v>0.44833899999999999</v>
-      </c>
-      <c r="I12">
-        <v>20.593665000000001</v>
-      </c>
-      <c r="L12">
-        <v>5</v>
-      </c>
-      <c r="M12">
-        <v>64</v>
-      </c>
-      <c r="N12">
-        <v>3.3075E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>128</v>
-      </c>
-      <c r="G13">
-        <v>38.155042999999999</v>
-      </c>
-      <c r="H13">
-        <v>1.777045</v>
-      </c>
-      <c r="I13">
-        <v>21.471062</v>
-      </c>
-      <c r="L13">
-        <v>6</v>
-      </c>
-      <c r="M13">
-        <v>128</v>
-      </c>
-      <c r="N13">
-        <v>0.131573</v>
-      </c>
-    </row>
-    <row r="14" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="L14">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
         <v>7</v>
       </c>
-      <c r="M14">
+      <c r="B19">
         <v>256</v>
       </c>
-      <c r="N14">
-        <v>0.52577600000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17">
-        <v>5.8900000000000003E-3</v>
-      </c>
-      <c r="H17">
-        <v>2.6250000000000002E-3</v>
-      </c>
-      <c r="I17">
-        <v>2.2439650000000002</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>8</v>
-      </c>
-      <c r="N17">
-        <v>1.356E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18">
-        <v>3.0067E-2</v>
-      </c>
-      <c r="H18">
-        <v>8.966E-3</v>
-      </c>
-      <c r="I18">
-        <v>3.3534739999999998</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18">
-        <v>16</v>
-      </c>
-      <c r="N18">
-        <v>3.287E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19">
+        <v>26.885771999999999</v>
+      </c>
+      <c r="D19">
+        <v>5.4475000000000003E-2</v>
+      </c>
       <c r="E19">
-        <v>3</v>
+        <v>0.33178800000000003</v>
       </c>
       <c r="F19">
-        <v>16</v>
+        <v>493.54312099999999</v>
       </c>
       <c r="G19">
-        <v>0.12754199999999999</v>
-      </c>
-      <c r="H19">
-        <v>2.7262999999999999E-2</v>
-      </c>
-      <c r="I19">
-        <v>4.6781410000000001</v>
-      </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-      <c r="M19">
-        <v>32</v>
-      </c>
-      <c r="N19">
-        <v>1.3727E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <v>32</v>
-      </c>
-      <c r="G20">
-        <v>0.53084100000000001</v>
-      </c>
-      <c r="H20">
-        <v>0.107348</v>
-      </c>
-      <c r="I20">
-        <v>4.9450609999999999</v>
-      </c>
-      <c r="L20">
-        <v>4</v>
-      </c>
-      <c r="M20">
-        <v>64</v>
-      </c>
-      <c r="N20">
-        <v>5.7938999999999997E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="F21">
-        <v>64</v>
-      </c>
-      <c r="G21">
-        <v>2.2222569999999999</v>
-      </c>
-      <c r="H21">
-        <v>0.42149900000000001</v>
-      </c>
-      <c r="I21">
-        <v>5.2722709999999999</v>
-      </c>
-      <c r="L21">
-        <v>5</v>
-      </c>
-      <c r="M21">
-        <v>128</v>
-      </c>
-      <c r="N21">
-        <v>3.7900000000000003E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E22">
-        <v>6</v>
-      </c>
-      <c r="F22">
-        <v>128</v>
-      </c>
-      <c r="G22">
-        <v>9.0208250000000003</v>
-      </c>
-      <c r="H22">
-        <v>1.69238</v>
-      </c>
-      <c r="I22">
-        <v>5.33026</v>
-      </c>
-      <c r="L22">
-        <v>6</v>
-      </c>
-      <c r="M22">
-        <v>256</v>
-      </c>
-      <c r="N22">
-        <v>9.9486000000000005E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="L23">
-        <v>7</v>
-      </c>
-      <c r="M23">
-        <v>512</v>
-      </c>
-      <c r="N23">
-        <v>0.33178800000000003</v>
+        <f t="shared" si="1"/>
+        <v>81.032984918080217</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E6:K24"/>
+  <sheetViews>
+    <sheetView topLeftCell="K4" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="6" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>3.4743000000000003E-2</v>
+      </c>
+      <c r="H8">
+        <v>2.7889999999999998E-3</v>
+      </c>
+      <c r="I8">
+        <v>3.6740000000000002E-3</v>
+      </c>
+      <c r="J8">
+        <v>12.458793</v>
+      </c>
+      <c r="K8">
+        <f>G8/I8</f>
+        <v>9.4564507348938491</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>0.13553299999999999</v>
+      </c>
+      <c r="H9">
+        <v>8.4100000000000008E-3</v>
+      </c>
+      <c r="I9">
+        <v>3.045E-3</v>
+      </c>
+      <c r="J9">
+        <v>16.115727</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K13" si="0">G9/I9</f>
+        <v>44.510016420361247</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>0.57729200000000003</v>
+      </c>
+      <c r="H10">
+        <v>3.1483999999999998E-2</v>
+      </c>
+      <c r="I10">
+        <v>4.3759999999999997E-3</v>
+      </c>
+      <c r="J10">
+        <v>18.336030999999998</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>131.92230347349178</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>2.3302800000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.11197500000000001</v>
+      </c>
+      <c r="I11">
+        <v>2.0128E-2</v>
+      </c>
+      <c r="J11">
+        <v>20.810662000000001</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>115.77305246422894</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>64</v>
+      </c>
+      <c r="G12">
+        <v>9.2329419999999995</v>
+      </c>
+      <c r="H12">
+        <v>0.44833899999999999</v>
+      </c>
+      <c r="I12">
+        <v>3.3075E-2</v>
+      </c>
+      <c r="J12">
+        <v>20.593665000000001</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>279.15168556311414</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>128</v>
+      </c>
+      <c r="G13">
+        <v>38.155042999999999</v>
+      </c>
+      <c r="H13">
+        <v>1.777045</v>
+      </c>
+      <c r="I13">
+        <v>0.131573</v>
+      </c>
+      <c r="J13">
+        <v>21.471062</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>289.99143441283547</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>256</v>
+      </c>
+      <c r="I14">
+        <v>0.52577600000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>5.8900000000000003E-3</v>
+      </c>
+      <c r="H18">
+        <v>2.6250000000000002E-3</v>
+      </c>
+      <c r="I18">
+        <v>1.356E-3</v>
+      </c>
+      <c r="J18">
+        <v>2.2439650000000002</v>
+      </c>
+      <c r="K18">
+        <f>G18/I18</f>
+        <v>4.3436578171091451</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>3.0067E-2</v>
+      </c>
+      <c r="H19">
+        <v>8.966E-3</v>
+      </c>
+      <c r="I19">
+        <v>3.287E-3</v>
+      </c>
+      <c r="J19">
+        <v>3.3534739999999998</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:K23" si="1">G19/I19</f>
+        <v>9.1472467295406137</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>0.12754199999999999</v>
+      </c>
+      <c r="H20">
+        <v>2.7262999999999999E-2</v>
+      </c>
+      <c r="I20">
+        <v>1.3727E-2</v>
+      </c>
+      <c r="J20">
+        <v>4.6781410000000001</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>9.2913236686821588</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>32</v>
+      </c>
+      <c r="G21">
+        <v>0.53084100000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.107348</v>
+      </c>
+      <c r="I21">
+        <v>5.7938999999999997E-2</v>
+      </c>
+      <c r="J21">
+        <v>4.9450609999999999</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>9.1620670015015797</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>64</v>
+      </c>
+      <c r="G22">
+        <v>2.2222569999999999</v>
+      </c>
+      <c r="H22">
+        <v>0.42149900000000001</v>
+      </c>
+      <c r="I22">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="J22">
+        <v>5.2722709999999999</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>58.634749340369389</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>128</v>
+      </c>
+      <c r="G23">
+        <v>9.0208250000000003</v>
+      </c>
+      <c r="H23">
+        <v>1.69238</v>
+      </c>
+      <c r="I23">
+        <v>9.9486000000000005E-2</v>
+      </c>
+      <c r="J23">
+        <v>5.33026</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>90.674315984158568</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>512</v>
+      </c>
+      <c r="I24">
+        <v>0.33178800000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>